--- a/hardware/Rev 1.0/hfm_adapter_nucleo-32_bom.xlsx
+++ b/hardware/Rev 1.0/hfm_adapter_nucleo-32_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\HFM_Adapter\hardware\Rev 1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EF740EB-6B5B-4BA8-B73C-0750A4B20D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13D603F-6076-4316-AB4E-DB914785A4DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{58802233-6000-4F35-85D7-371F14FE93B8}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{58802233-6000-4F35-85D7-371F14FE93B8}"/>
   </bookViews>
   <sheets>
     <sheet name="hfm_adapter_nucleo-32_bom" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="101">
   <si>
     <t>Qty</t>
   </si>
@@ -85,9 +85,6 @@
     <t>R12</t>
   </si>
   <si>
-    <t>10ÂµF  50v</t>
-  </si>
-  <si>
     <t>CPOL-EUD</t>
   </si>
   <si>
@@ -317,6 +314,15 @@
   </si>
   <si>
     <t>22µF</t>
+  </si>
+  <si>
+    <t>10µF  50v</t>
+  </si>
+  <si>
+    <t>5k6 0.5%</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -459,7 +465,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -637,6 +643,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -800,8 +812,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1157,602 +1171,730 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{567D5930-1E4B-4A57-9BDC-EBA66D6A943A}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="79.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="79.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="13" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="1">
         <v>4</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="G13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="15" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="1">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="F15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="16" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="D18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E16" t="s">
+    </row>
+    <row r="19" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F17" t="s">
+    </row>
+    <row r="20" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="D20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F20" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F18" t="s">
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" t="s">
-        <v>57</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="G21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F19" t="s">
+    </row>
+    <row r="22" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="G22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F20" t="s">
+    </row>
+    <row r="23" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="D23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C21" t="s">
+      <c r="E23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D21" t="s">
+      <c r="F23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F21" t="s">
+    </row>
+    <row r="24" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C22" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G24" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F22" t="s">
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C23" t="s">
+      <c r="F25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D23" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="F26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="F27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C25" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="G27" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F25" t="s">
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="D28" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C26" t="s">
+      <c r="E28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D26" t="s">
+      <c r="F28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E26" t="s">
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="D29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E29" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D27" t="s">
+      <c r="F29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E27" t="s">
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="D30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="F30" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E28" t="s">
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C29" t="s">
+      <c r="F31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="F32" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C30" t="s">
-        <v>96</v>
-      </c>
-      <c r="D30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
